--- a/문서/Preview.xlsx
+++ b/문서/Preview.xlsx
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19개(Layout 18개, ParentActivity 2개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +277,10 @@
   </si>
   <si>
     <t>함수단위로 주석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19개(Layout 17개, ParentActivity 2개)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,9 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,6 +400,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H36" sqref="B3:H37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -715,697 +715,697 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="37.799999999999997">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
         <f>IF(F4="O", E4,IF(F4="?", E4, 0))</f>
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" ref="G5:G36" si="0">IF(F5="O", E5,IF(F5="?", E5, 0))</f>
         <v>12</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H13" s="2"/>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H14" s="2"/>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>30</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2">
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" ht="27.6">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1">
         <v>30</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1">
         <v>20</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2">
-        <v>6</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:8" ht="27.6">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="2">
-        <v>15</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="2">
-        <v>20</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="2">
-        <v>20</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="2">
-        <v>20</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="2">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="2">
-        <v>8</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" ht="41.4">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="2">
-        <v>20</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" ht="41.4">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="2">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H36" s="2"/>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6">
         <f t="shared" ref="E37" si="1">SUM(E4:E36)</f>
         <v>399</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7">
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
         <f>SUM(G4:G36)</f>
         <v>359</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서/Preview.xlsx
+++ b/문서/Preview.xlsx
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메시지 응답 알림음 사용(Ringtone)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,16 +267,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Singleton Pattern(Tool, DBTool), Thread(JsonThread)
-, JSON parsing, API server 구현, View(Custom ListView, RadioButton, Spinner), Model(DAO, Java bean)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>함수단위로 주석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19개(Layout 17개, ParentActivity 2개)</t>
+    <t>20개(Layout 18개, ParentActivity 2개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singleton Pattern(Tool, DBTool, DAO), Thread(JsonThread)
+, JSON parsing, API server 구현, View(Custom ListView, RadioButton, Spinner, SurfaceView), Model(DAO, Java bean)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 응답 알림음 사용(Ringtone), Tutorial Video(MediaPlayer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,12 +320,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -377,7 +383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,6 +410,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -710,7 +722,7 @@
     <col min="1" max="1" width="2.8984375" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -919,40 +931,40 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H13" s="1"/>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
@@ -982,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -1142,13 +1154,13 @@
         <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1">
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
@@ -1159,10 +1171,10 @@
     <row r="25" spans="2:8">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -1179,10 +1191,10 @@
     <row r="26" spans="2:8" ht="27.6">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E26" s="1">
         <v>15</v>
@@ -1199,10 +1211,10 @@
     <row r="27" spans="2:8">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E27" s="1">
         <v>20</v>
@@ -1219,10 +1231,10 @@
     <row r="28" spans="2:8">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
@@ -1239,10 +1251,10 @@
     <row r="29" spans="2:8">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -1259,10 +1271,10 @@
     <row r="30" spans="2:8">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
@@ -1279,14 +1291,14 @@
     <row r="31" spans="2:8">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="1">
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
@@ -1297,14 +1309,14 @@
     <row r="32" spans="2:8">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="1">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
@@ -1315,10 +1327,10 @@
     <row r="33" spans="2:8">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E33" s="1">
         <v>8</v>
@@ -1333,32 +1345,32 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="1">
-        <v>10</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="9">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H34" s="1"/>
+      <c r="G34" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E35" s="1">
         <v>20</v>
@@ -1372,13 +1384,13 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" ht="41.4">
+    <row r="36" spans="2:8" ht="69">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>

--- a/문서/Preview.xlsx
+++ b/문서/Preview.xlsx
@@ -405,17 +405,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -727,21 +727,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="37.799999999999997">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
@@ -931,40 +931,40 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9">
-        <v>10</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H13" s="9"/>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9">
-        <v>10</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H14" s="9"/>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
@@ -1345,24 +1345,24 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="9">
-        <v>10</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="7">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H34" s="9"/>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="2"/>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" ht="69">
+    <row r="36" spans="2:8" ht="41.4">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>61</v>

--- a/문서/Preview.xlsx
+++ b/문서/Preview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>명지대학교 취업을 준비하는 사람들(명취사)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>영상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,6 +277,57 @@
   </si>
   <si>
     <t>메시지 응답 알림음 사용(Ringtone), Tutorial Video(MediaPlayer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록 8개, 제안서, 개념설계보고서, 상세설계보고서, 최종보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명지대 취업 Talk, 지도, NFC, Bluetooth, Web Server를 이용하여
+취업스터디를 위한 기능과 정보제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표(아이디어제안 및 기능), 시연동영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자막있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 팀원들이 취준생인데 취업스터디를 구하려면 인터넷 카페를 이용해서
+어렵게 구해야하고, 서울까지 나가서 스터디를 진행해야함(왕복 3시간이상), 단점을 극복하고자 학교 내에서도 취업을 위한 스터디를 구할 수 있는 커뮤니케이션이 있으면 좋겠다고 생각하여 만들게됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 개발진행 / UX &amp; UI / 약속잡기(Map) 
+/ 출석체크(NFC) &amp; 귓속말(Bluetooth) / Model &amp; DB table 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache PHP MySQL Server(JSON API Server 구현)
+Naver Map API
+GPS &amp; NFC &amp; Bluetooth
+SQLite
+Android Component(Activity, Service, ContentProvider, BroadcastReceiver, Preference)
+Design Pattern(MVC + Singleton)
+FCM(메시징)
+okHttp(Thread + JSON parsing)
+Multimedia(Audio(메시지 알림음) + Video(SerfaseView))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간편한 UX/UI, 다양한 기능(NFC 출석확인, 지도를 통한 약속), 알람해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +366,46 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF490BF9"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF490BF9"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +415,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,38 +480,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,6 +550,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF490BF9"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -713,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -722,702 +854,726 @@
     <col min="1" max="1" width="2.8984375" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="56.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.09765625" customWidth="1"/>
     <col min="8" max="8" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="37.799999999999997">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1">
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="12">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12">
         <f>IF(F4="O", E4,IF(F4="?", E4, 0))</f>
         <v>5</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:8" ht="27.6">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1">
+      <c r="D5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12">
         <f t="shared" ref="G5:G36" si="0">IF(F5="O", E5,IF(F5="?", E5, 0))</f>
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" ht="55.2">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="D6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
+      <c r="D7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="12">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1">
+      <c r="D8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="12">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" ht="138">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1">
+      <c r="D9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="12">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" ht="27.6">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1">
+      <c r="D10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="12">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1">
+      <c r="D11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="14">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="14">
+        <v>10</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7">
-        <v>10</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12">
+        <v>30</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="12">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="12">
+        <v>10</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="12">
         <v>20</v>
       </c>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="F18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
+      <c r="E19" s="12">
+        <v>15</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="12">
+        <v>10</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="12">
+        <v>10</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="12">
+        <v>5</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="12">
+        <v>5</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="12">
+        <v>6</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="12">
+        <v>5</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" ht="27.6">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="12">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="12">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="12">
+        <v>20</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="12">
+        <v>20</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="12">
+        <v>10</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="18">
         <v>30</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="F31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="18">
+        <v>10</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="12">
+        <v>8</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="12">
+        <v>20</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" ht="41.4">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" ht="27.6">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="1">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="1">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="1">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="1">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1">
-        <v>30</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="1">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="7">
-        <v>10</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="1">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" ht="41.4">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H36" s="1"/>
+      <c r="E36" s="12">
+        <v>10</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="19">
         <f t="shared" ref="E37" si="1">SUM(E4:E36)</f>
         <v>399</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6">
+      <c r="F37" s="19"/>
+      <c r="G37" s="19">
         <f>SUM(G4:G36)</f>
         <v>359</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서/Preview.xlsx
+++ b/문서/Preview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>명지대학교 취업을 준비하는 사람들(명취사)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,10 @@
   </si>
   <si>
     <t>문서참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고한 자료, 목차구성, 느낀점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,61 +491,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -859,717 +863,719 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="37.799999999999997">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>5</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10">
         <f>IF(F4="O", E4,IF(F4="?", E4, 0))</f>
         <v>5</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27.6">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>12</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
         <f t="shared" ref="G5:G36" si="0">IF(F5="O", E5,IF(F5="?", E5, 0))</f>
         <v>12</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" ht="55.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="12">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H6" s="4"/>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>12</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>12</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" ht="138">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>8</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" ht="27.6">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>8</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>8</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="F11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="14">
-        <v>10</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="14">
-        <v>10</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H13" s="9"/>
+      <c r="E13" s="12">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="14">
-        <v>10</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H14" s="9"/>
+      <c r="E14" s="12">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>30</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="F15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>5</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="F16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="12">
-        <v>10</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H17" s="4"/>
+      <c r="E17" s="10">
+        <v>10</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>20</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>15</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="12">
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="12">
-        <v>10</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H20" s="4"/>
+      <c r="E20" s="10">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="12">
-        <v>10</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="E21" s="10">
+        <v>10</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>5</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="F22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>5</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="F23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>6</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="12">
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>5</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="12">
+      <c r="F25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" ht="27.6">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>15</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12">
+      <c r="F26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>20</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="12">
+      <c r="F27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>20</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="F28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>20</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="12">
+      <c r="F29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="12">
-        <v>10</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H30" s="4"/>
+      <c r="E30" s="10">
+        <v>10</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <v>30</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="18">
-        <v>10</v>
-      </c>
-      <c r="F32" s="18" t="s">
+      <c r="E32" s="16">
+        <v>10</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <v>8</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="12">
+      <c r="F33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="14">
-        <v>10</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H34" s="9"/>
+      <c r="E34" s="12">
+        <v>10</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>20</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="12">
+      <c r="F35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="41.4">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="12">
-        <v>10</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H36" s="4"/>
+      <c r="E36" s="10">
+        <v>10</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="19">
+      <c r="E37" s="17">
         <f t="shared" ref="E37" si="1">SUM(E4:E36)</f>
         <v>399</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19">
+      <c r="F37" s="17"/>
+      <c r="G37" s="17">
         <f>SUM(G4:G36)</f>
         <v>359</v>
       </c>

--- a/문서/Preview.xlsx
+++ b/문서/Preview.xlsx
@@ -435,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -470,10 +470,121 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -484,15 +595,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -506,15 +614,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,9 +629,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -539,13 +638,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -863,719 +1037,719 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="37.799999999999997">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="2:8" ht="18" thickBot="1">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7">
         <f>IF(F4="O", E4,IF(F4="?", E4, 0))</f>
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="2:8" ht="27.6">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G36" si="0">IF(F5="O", E5,IF(F5="?", E5, 0))</f>
         <v>12</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="2:8" ht="55.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="10">
-        <v>10</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="E6" s="7">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="138">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>8</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="2:8" ht="27.6">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>8</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>8</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="12">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:8" ht="18" thickBot="1">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="12">
-        <v>10</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="E14" s="40">
+        <v>10</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="18">
         <v>30</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="10">
-        <v>10</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H17" s="2"/>
+      <c r="E17" s="7">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="7">
         <v>20</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="7">
         <v>15</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="10">
-        <v>10</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H20" s="2"/>
+      <c r="E20" s="7">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="10">
-        <v>10</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H21" s="2"/>
+      <c r="E21" s="7">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="7">
         <v>5</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="7">
         <v>5</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="7">
         <v>6</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="7">
         <v>5</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" ht="27.6">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="7">
         <v>15</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="7">
         <v>20</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="7">
         <v>20</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="7">
         <v>20</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="10">
-        <v>10</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H30" s="2"/>
+      <c r="E30" s="7">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="12">
         <v>30</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="16">
-        <v>10</v>
-      </c>
-      <c r="F32" s="16" t="s">
+      <c r="E32" s="12">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="7">
         <v>8</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="12">
-        <v>10</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H34" s="7"/>
+      <c r="E34" s="9">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="7">
         <v>20</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="F35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" ht="41.4">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11" t="s">
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="2:8" ht="42" thickBot="1">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="10">
-        <v>10</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H36" s="2"/>
+      <c r="E36" s="29">
+        <v>10</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="17">
+      <c r="E37" s="13">
         <f t="shared" ref="E37" si="1">SUM(E4:E36)</f>
         <v>399</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13">
         <f>SUM(G4:G36)</f>
         <v>359</v>
       </c>
